--- a/va_facility_data_2025-02-20/Albert Lea VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Albert%20Lea%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Albert Lea VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Albert%20Lea%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc2e577a4db344b6be12a15b8d82c685"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8790456c3db6438fa3d605dde11b042e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdc79018d64564ffa9d90d1f57579481f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R44e08f30584449808417a1594020ffcc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7e8d98e94e424fb5997a5a3d7a49887b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R575c6c05fc974713ac18d3eeb975816a"/>
   </x:sheets>
 </x:workbook>
 </file>
